--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3881.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3881.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.450128955401842</v>
+        <v>2.020306348800659</v>
       </c>
       <c r="B1">
-        <v>2.715004146097235</v>
+        <v>2.284380435943604</v>
       </c>
       <c r="C1">
-        <v>2.768381977080002</v>
+        <v>2.882810592651367</v>
       </c>
       <c r="D1">
-        <v>3.549015374813121</v>
+        <v>5.840785026550293</v>
       </c>
       <c r="E1">
-        <v>1.434739617939232</v>
+        <v>2.8840651512146</v>
       </c>
     </row>
   </sheetData>
